--- a/자유수강권/로보로보(재료).xlsx
+++ b/자유수강권/로보로보(재료).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>주야</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>이윤찬</t>
+  </si>
+  <si>
+    <t>5반</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>한준석</t>
   </si>
 </sst>
 </file>
@@ -439,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -551,6 +560,32 @@
         <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="13.5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
